--- a/medicine/Psychotrope/Schwarzbier/Schwarzbier.xlsx
+++ b/medicine/Psychotrope/Schwarzbier/Schwarzbier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Schwarzbier est une bière noire de fermentation basse. Titrant entre 4,5 et 5 % et de couleur noire, elle possède un arôme intense.
 Elle se boit aux alentours de 8 degrés.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1492 fut brassée la Braunschweiger Mumme, la première Schwarzbier attestée. Elle était cependant produite par fermentation haute.
 L'avènement des bières blondes comme la Pils à la fin du XIXe siècle a signé le déclin de la Schwarzbier. Ce n'est que depuis deux décennies qu'elle est remise au goût du jour.
@@ -544,7 +558,9 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Schwarzbier sont brassées avec du malt torréfié. Leur densité primitive de moût est située entre 11 et 12 %. Le malt ainsi rôti donne sa couleur noire opaque à la boisson, lui conférant également un goût unique.
 Contrairement à la bière Stout, la Schwarzbier (de l'Allemand « Bière Noire »), a un goût plus prononcé, tirant sur l'arôme de mélasse, ce qui n'est pas le cas de la Guinness, par exemple.
